--- a/Excel/#ConstValue.xlsx
+++ b/Excel/#ConstValue.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="ConstValue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -62,7 +49,7 @@
     <t>聊天消息上限</t>
   </si>
   <si>
-    <t>ChatSendId</t>
+    <t>ChatWorId</t>
   </si>
   <si>
     <t>聊天系统消息uid</t>
@@ -86,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1082,17 +1069,17 @@
   <dimension ref="C2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.2636363636364" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5545454545455" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1727272727273" style="2" customWidth="1"/>
-    <col min="6" max="6" width="53.5363636363636" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.2666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="53.5333333333333" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1101,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="3:6">
+    <row r="3" spans="3:6">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1115,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:6">
+    <row r="4" spans="3:6">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1114,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" ht="13.5" spans="3:6">
+    <row r="5" spans="3:6">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1144,8 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>

--- a/Excel/#ConstValue.xlsx
+++ b/Excel/#ConstValue.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="ConstValue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -62,9 +75,6 @@
   </si>
   <si>
     <t>StartMap</t>
-  </si>
-  <si>
-    <t>Map1</t>
   </si>
   <si>
     <t>新手村</t>
@@ -73,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -700,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,9 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,7 +1076,7 @@
   <dimension ref="C2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1172,14 +1179,14 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100001</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/#ConstValue.xlsx
+++ b/Excel/#ConstValue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="ConstValue" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>#</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>新手村</t>
+  </si>
+  <si>
+    <t>FixedUpdateFPS</t>
+  </si>
+  <si>
+    <t>固定间隔的目标FPS</t>
   </si>
 </sst>
 </file>
@@ -1073,17 +1079,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C2:F9"/>
+  <dimension ref="C2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.2666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.5583333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.175" style="2" customWidth="1"/>
     <col min="6" max="6" width="53.5333333333333" style="3" customWidth="1"/>
@@ -1189,6 +1195,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
